--- a/Body/2Derived/EcologyMammalianTable01_KuptsovA_ver2_Full.xlsx
+++ b/Body/2Derived/EcologyMammalianTable01_KuptsovA_ver2_Full.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polar\Documents\GitHub\mtDNA_mutspectrum\Body\2Derived\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="13410" windowHeight="12060"/>
   </bookViews>
@@ -6634,28 +6639,31 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="txt._11" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="txt._8" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="txt._5" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="txt._7" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="txt._7" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="txt._9" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="txt._9" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="txt._12" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="txt._12" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="txt._11" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6663,7 +6671,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="txt._8" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="txt._5" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6866,42 +6874,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV650"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A646" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" sqref="A1:AC650"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="9" style="5" customWidth="1"/>
     <col min="4" max="6" width="13" style="5"/>
-    <col min="7" max="7" width="9.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="5" customWidth="1"/>
     <col min="8" max="8" width="9" style="5" customWidth="1"/>
     <col min="9" max="9" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="5" customWidth="1"/>
     <col min="11" max="11" width="14.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="13" customWidth="1"/>
-    <col min="13" max="13" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" customWidth="1"/>
-    <col min="16" max="16" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="4.625" style="5" customWidth="1"/>
-    <col min="23" max="24" width="11.125" style="7" customWidth="1"/>
-    <col min="25" max="25" width="11.125" style="50" customWidth="1"/>
-    <col min="26" max="27" width="8.375" style="44" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.125" style="7" customWidth="1"/>
-    <col min="29" max="29" width="19.375" customWidth="1"/>
-    <col min="30" max="30" width="6.375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="4.58203125" style="5" customWidth="1"/>
+    <col min="23" max="24" width="11.08203125" style="7" customWidth="1"/>
+    <col min="25" max="25" width="11.08203125" style="50" customWidth="1"/>
+    <col min="26" max="27" width="8.33203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.08203125" style="7" customWidth="1"/>
+    <col min="29" max="29" width="19.33203125" customWidth="1"/>
+    <col min="30" max="30" width="6.33203125" style="9" customWidth="1"/>
     <col min="31" max="31" width="8.25" style="8" customWidth="1"/>
     <col min="32" max="38" width="5.25" style="8" customWidth="1"/>
     <col min="39" max="39" width="8.5" style="1" customWidth="1"/>
-    <col min="40" max="40" width="9.125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="9.08203125" style="1" customWidth="1"/>
     <col min="41" max="41" width="18.25" style="5" customWidth="1"/>
     <col min="42" max="51" width="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>1894</v>
       </c>
@@ -7026,7 +7034,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -7120,7 +7128,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -7214,7 +7222,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -7292,7 +7300,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -7370,7 +7378,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -7448,7 +7456,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -7542,7 +7550,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -7624,7 +7632,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -7702,7 +7710,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -7796,7 +7804,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -7874,7 +7882,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -7952,7 +7960,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -8030,7 +8038,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -8108,7 +8116,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -8202,7 +8210,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -8280,7 +8288,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -8358,7 +8366,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -8452,7 +8460,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -8530,7 +8538,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -8612,7 +8620,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -8694,7 +8702,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -8772,7 +8780,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -8850,7 +8858,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
@@ -8928,7 +8936,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
@@ -9026,7 +9034,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
@@ -9104,7 +9112,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
@@ -9182,7 +9190,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
@@ -9260,7 +9268,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
@@ -9338,7 +9346,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
@@ -9432,7 +9440,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
@@ -9526,7 +9534,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
@@ -9604,7 +9612,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="33" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
@@ -9682,7 +9690,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="34" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -9766,7 +9774,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="35" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -9844,7 +9852,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="36" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
@@ -9922,7 +9930,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="37" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
@@ -10000,7 +10008,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="38" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>12</v>
       </c>
@@ -10078,7 +10086,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="39" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>12</v>
       </c>
@@ -10156,7 +10164,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="40" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>12</v>
       </c>
@@ -10234,7 +10242,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="41" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>12</v>
       </c>
@@ -10312,7 +10320,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="42" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>12</v>
       </c>
@@ -10390,7 +10398,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="43" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>12</v>
       </c>
@@ -10468,7 +10476,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>12</v>
       </c>
@@ -10546,7 +10554,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="45" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
@@ -10624,7 +10632,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="46" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
@@ -10702,7 +10710,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="47" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>12</v>
       </c>
@@ -10786,7 +10794,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="48" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>12</v>
       </c>
@@ -10870,7 +10878,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
@@ -10948,7 +10956,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>12</v>
       </c>
@@ -11026,7 +11034,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
@@ -11104,7 +11112,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="52" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>12</v>
       </c>
@@ -11188,7 +11196,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="53" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>12</v>
       </c>
@@ -11266,7 +11274,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="54" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>12</v>
       </c>
@@ -11344,7 +11352,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="55" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>12</v>
       </c>
@@ -11422,7 +11430,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="56" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
@@ -11506,7 +11514,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="57" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>12</v>
       </c>
@@ -11588,7 +11596,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="58" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>12</v>
       </c>
@@ -11666,7 +11674,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="59" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>12</v>
       </c>
@@ -11762,7 +11770,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="60" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>12</v>
       </c>
@@ -11842,7 +11850,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="61" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>12</v>
       </c>
@@ -11922,7 +11930,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="62" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>12</v>
       </c>
@@ -12002,7 +12010,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="63" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>12</v>
       </c>
@@ -12080,7 +12088,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="64" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>12</v>
       </c>
@@ -12162,7 +12170,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="65" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>12</v>
       </c>
@@ -12246,7 +12254,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="66" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>12</v>
       </c>
@@ -12324,7 +12332,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="67" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>12</v>
       </c>
@@ -12418,7 +12426,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="68" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>12</v>
       </c>
@@ -12496,7 +12504,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="69" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>12</v>
       </c>
@@ -12574,7 +12582,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="70" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>12</v>
       </c>
@@ -12652,7 +12660,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="71" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>12</v>
       </c>
@@ -12730,7 +12738,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="72" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>12</v>
       </c>
@@ -12812,7 +12820,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="73" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>12</v>
       </c>
@@ -12906,7 +12914,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="74" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>12</v>
       </c>
@@ -12990,7 +12998,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="75" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>12</v>
       </c>
@@ -13068,7 +13076,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="76" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>12</v>
       </c>
@@ -13150,7 +13158,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="77" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>12</v>
       </c>
@@ -13232,7 +13240,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="78" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>12</v>
       </c>
@@ -13314,7 +13322,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="79" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>12</v>
       </c>
@@ -13396,7 +13404,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="80" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>12</v>
       </c>
@@ -13478,7 +13486,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="81" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>12</v>
       </c>
@@ -13556,7 +13564,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="82" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
@@ -13634,7 +13642,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="83" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>12</v>
       </c>
@@ -13712,7 +13720,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="84" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>12</v>
       </c>
@@ -13790,7 +13798,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="85" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>12</v>
       </c>
@@ -13868,7 +13876,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="86" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>12</v>
       </c>
@@ -13982,7 +13990,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="87" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>12</v>
       </c>
@@ -14060,7 +14068,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="88" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>12</v>
       </c>
@@ -14138,7 +14146,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="89" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>12</v>
       </c>
@@ -14216,7 +14224,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>12</v>
       </c>
@@ -14294,7 +14302,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="91" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>12</v>
       </c>
@@ -14372,7 +14380,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="92" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>12</v>
       </c>
@@ -14450,7 +14458,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="93" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>12</v>
       </c>
@@ -14528,7 +14536,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="94" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>12</v>
       </c>
@@ -14606,7 +14614,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="95" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>12</v>
       </c>
@@ -14684,7 +14692,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="96" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>12</v>
       </c>
@@ -14762,7 +14770,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="97" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>12</v>
       </c>
@@ -14840,7 +14848,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="98" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>12</v>
       </c>
@@ -14918,7 +14926,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="99" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>12</v>
       </c>
@@ -14996,7 +15004,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="100" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>12</v>
       </c>
@@ -15090,7 +15098,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="101" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>12</v>
       </c>
@@ -15174,7 +15182,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="102" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>12</v>
       </c>
@@ -15270,7 +15278,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="103" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>12</v>
       </c>
@@ -15366,7 +15374,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="104" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>12</v>
       </c>
@@ -15448,7 +15456,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="105" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>12</v>
       </c>
@@ -15571,7 +15579,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="106" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>12</v>
       </c>
@@ -15665,7 +15673,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="107" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>12</v>
       </c>
@@ -15743,7 +15751,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="108" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
@@ -15823,7 +15831,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="109" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>12</v>
       </c>
@@ -15905,7 +15913,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="110" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>12</v>
       </c>
@@ -15987,7 +15995,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="111" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>12</v>
       </c>
@@ -16069,7 +16077,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="112" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>12</v>
       </c>
@@ -16149,7 +16157,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="113" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>12</v>
       </c>
@@ -16245,7 +16253,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="114" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>12</v>
       </c>
@@ -16339,7 +16347,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="115" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>12</v>
       </c>
@@ -16417,7 +16425,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="116" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>12</v>
       </c>
@@ -16511,7 +16519,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="117" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>12</v>
       </c>
@@ -16605,7 +16613,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="118" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>12</v>
       </c>
@@ -16683,7 +16691,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="119" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>12</v>
       </c>
@@ -16777,7 +16785,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="120" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>12</v>
       </c>
@@ -16855,7 +16863,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="121" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>12</v>
       </c>
@@ -16933,7 +16941,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="122" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>12</v>
       </c>
@@ -17015,7 +17023,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="123" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>12</v>
       </c>
@@ -17097,7 +17105,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="124" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>12</v>
       </c>
@@ -17179,7 +17187,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="125" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>12</v>
       </c>
@@ -17261,7 +17269,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="126" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>12</v>
       </c>
@@ -17343,7 +17351,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="127" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>12</v>
       </c>
@@ -17425,7 +17433,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="128" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>12</v>
       </c>
@@ -17507,7 +17515,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="129" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>12</v>
       </c>
@@ -17585,7 +17593,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="130" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>12</v>
       </c>
@@ -17663,7 +17671,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="131" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>12</v>
       </c>
@@ -17741,7 +17749,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="132" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>12</v>
       </c>
@@ -17823,7 +17831,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="133" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>12</v>
       </c>
@@ -17901,7 +17909,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="134" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
@@ -18003,7 +18011,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="135" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>12</v>
       </c>
@@ -18101,7 +18109,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="136" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>12</v>
       </c>
@@ -18195,7 +18203,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="137" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>12</v>
       </c>
@@ -18273,7 +18281,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="138" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>12</v>
       </c>
@@ -18351,7 +18359,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="139" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>12</v>
       </c>
@@ -18429,7 +18437,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="140" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>12</v>
       </c>
@@ -18507,7 +18515,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="141" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>12</v>
       </c>
@@ -18585,7 +18593,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="142" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>12</v>
       </c>
@@ -18663,7 +18671,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="143" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>12</v>
       </c>
@@ -18741,7 +18749,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="144" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>12</v>
       </c>
@@ -18821,7 +18829,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="145" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>12</v>
       </c>
@@ -18901,7 +18909,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="146" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>12</v>
       </c>
@@ -18997,7 +19005,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="147" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>12</v>
       </c>
@@ -19077,7 +19085,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="148" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>12</v>
       </c>
@@ -19157,7 +19165,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="149" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>12</v>
       </c>
@@ -19237,7 +19245,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="150" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>12</v>
       </c>
@@ -19317,7 +19325,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="151" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>12</v>
       </c>
@@ -19395,7 +19403,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="152" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>12</v>
       </c>
@@ -19473,7 +19481,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="153" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>12</v>
       </c>
@@ -19561,7 +19569,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="154" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>12</v>
       </c>
@@ -19659,7 +19667,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="155" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>12</v>
       </c>
@@ -19737,7 +19745,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="156" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>12</v>
       </c>
@@ -19821,7 +19829,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="157" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>12</v>
       </c>
@@ -19915,7 +19923,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="158" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>12</v>
       </c>
@@ -20009,7 +20017,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="159" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>12</v>
       </c>
@@ -20087,7 +20095,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="160" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
@@ -20165,7 +20173,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="161" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>12</v>
       </c>
@@ -20243,7 +20251,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="162" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>12</v>
       </c>
@@ -20353,7 +20361,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="163" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>12</v>
       </c>
@@ -20439,7 +20447,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="164" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>12</v>
       </c>
@@ -20551,7 +20559,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="165" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>12</v>
       </c>
@@ -20645,7 +20653,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="166" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>12</v>
       </c>
@@ -20723,7 +20731,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="167" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>12</v>
       </c>
@@ -20801,7 +20809,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="168" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>12</v>
       </c>
@@ -20885,7 +20893,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="169" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>12</v>
       </c>
@@ -20969,7 +20977,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="170" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>12</v>
       </c>
@@ -21047,7 +21055,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="171" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>12</v>
       </c>
@@ -21125,7 +21133,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="172" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>12</v>
       </c>
@@ -21203,7 +21211,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="173" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>12</v>
       </c>
@@ -21281,7 +21289,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="174" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>12</v>
       </c>
@@ -21359,7 +21367,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="175" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>12</v>
       </c>
@@ -21437,7 +21445,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="176" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>12</v>
       </c>
@@ -21515,7 +21523,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="177" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>12</v>
       </c>
@@ -21593,7 +21601,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="178" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>12</v>
       </c>
@@ -21671,7 +21679,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="179" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>12</v>
       </c>
@@ -21757,7 +21765,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="180" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>12</v>
       </c>
@@ -21839,7 +21847,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="181" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>12</v>
       </c>
@@ -21921,7 +21929,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="182" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>12</v>
       </c>
@@ -22003,7 +22011,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="183" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>12</v>
       </c>
@@ -22085,7 +22093,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="184" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>12</v>
       </c>
@@ -22179,7 +22187,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="185" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>12</v>
       </c>
@@ -22257,7 +22265,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="186" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
@@ -22382,7 +22390,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="187" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>12</v>
       </c>
@@ -22476,7 +22484,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="188" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>12</v>
       </c>
@@ -22554,7 +22562,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="189" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>12</v>
       </c>
@@ -22632,7 +22640,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="190" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>12</v>
       </c>
@@ -22710,7 +22718,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="191" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>12</v>
       </c>
@@ -22788,7 +22796,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="192" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>12</v>
       </c>
@@ -22866,7 +22874,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="193" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>12</v>
       </c>
@@ -22948,7 +22956,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="194" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>12</v>
       </c>
@@ -23030,7 +23038,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="195" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>12</v>
       </c>
@@ -23108,7 +23116,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="196" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>12</v>
       </c>
@@ -23186,7 +23194,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="197" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>12</v>
       </c>
@@ -23264,7 +23272,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="198" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>12</v>
       </c>
@@ -23342,7 +23350,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="199" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>12</v>
       </c>
@@ -23420,7 +23428,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="200" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>12</v>
       </c>
@@ -23498,7 +23506,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="201" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>12</v>
       </c>
@@ -23614,7 +23622,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="202" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
         <v>12</v>
       </c>
@@ -23708,7 +23716,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="203" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>12</v>
       </c>
@@ -23786,7 +23794,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="204" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>12</v>
       </c>
@@ -23864,7 +23872,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="205" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>12</v>
       </c>
@@ -23942,7 +23950,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="206" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>12</v>
       </c>
@@ -24026,7 +24034,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="207" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>12</v>
       </c>
@@ -24104,7 +24112,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="208" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>12</v>
       </c>
@@ -24182,7 +24190,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="209" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>12</v>
       </c>
@@ -24266,7 +24274,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="210" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
         <v>12</v>
       </c>
@@ -24344,7 +24352,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="211" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>12</v>
       </c>
@@ -24428,7 +24436,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="212" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
@@ -24551,7 +24559,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="213" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>12</v>
       </c>
@@ -24629,7 +24637,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="214" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
         <v>12</v>
       </c>
@@ -24707,7 +24715,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="215" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
         <v>12</v>
       </c>
@@ -24791,7 +24799,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="216" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>12</v>
       </c>
@@ -24869,7 +24877,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="217" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>12</v>
       </c>
@@ -24963,7 +24971,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="218" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>12</v>
       </c>
@@ -25041,7 +25049,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="219" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>12</v>
       </c>
@@ -25119,7 +25127,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="220" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
         <v>12</v>
       </c>
@@ -25203,7 +25211,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="221" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
         <v>12</v>
       </c>
@@ -25310,7 +25318,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="222" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
         <v>12</v>
       </c>
@@ -25388,7 +25396,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="223" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
         <v>12</v>
       </c>
@@ -25484,7 +25492,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="224" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
         <v>12</v>
       </c>
@@ -25562,7 +25570,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="225" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
         <v>12</v>
       </c>
@@ -25646,7 +25654,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="226" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
         <v>12</v>
       </c>
@@ -25726,7 +25734,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="227" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
         <v>12</v>
       </c>
@@ -25804,7 +25812,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="228" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
         <v>12</v>
       </c>
@@ -25898,7 +25906,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="229" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
         <v>12</v>
       </c>
@@ -25982,7 +25990,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="230" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
         <v>12</v>
       </c>
@@ -26060,7 +26068,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="231" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
         <v>12</v>
       </c>
@@ -26138,7 +26146,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="232" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
         <v>12</v>
       </c>
@@ -26216,7 +26224,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="233" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
         <v>12</v>
       </c>
@@ -26294,7 +26302,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="234" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
         <v>12</v>
       </c>
@@ -26372,7 +26380,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="235" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
         <v>12</v>
       </c>
@@ -26466,7 +26474,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="236" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
         <v>12</v>
       </c>
@@ -26544,7 +26552,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="237" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
         <v>12</v>
       </c>
@@ -26622,7 +26630,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="238" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
@@ -26700,7 +26708,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="239" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
         <v>12</v>
       </c>
@@ -26778,7 +26786,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="240" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
         <v>12</v>
       </c>
@@ -26872,7 +26880,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="241" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
         <v>12</v>
       </c>
@@ -26966,7 +26974,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="242" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
         <v>12</v>
       </c>
@@ -27048,7 +27056,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="243" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
         <v>12</v>
       </c>
@@ -27126,7 +27134,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="244" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
         <v>12</v>
       </c>
@@ -27204,7 +27212,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="245" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
         <v>12</v>
       </c>
@@ -27286,7 +27294,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="246" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
         <v>12</v>
       </c>
@@ -27368,7 +27376,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="247" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
         <v>12</v>
       </c>
@@ -27446,7 +27454,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="248" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
         <v>12</v>
       </c>
@@ -27530,7 +27538,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="249" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
         <v>12</v>
       </c>
@@ -27608,7 +27616,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="250" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
         <v>12</v>
       </c>
@@ -27686,7 +27694,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="251" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
         <v>12</v>
       </c>
@@ -27764,7 +27772,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="252" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
         <v>12</v>
       </c>
@@ -27875,7 +27883,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="253" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
         <v>12</v>
       </c>
@@ -27953,7 +27961,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="254" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
         <v>12</v>
       </c>
@@ -28031,7 +28039,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="255" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
         <v>12</v>
       </c>
@@ -28109,7 +28117,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="256" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
         <v>12</v>
       </c>
@@ -28187,7 +28195,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="257" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
         <v>12</v>
       </c>
@@ -28265,7 +28273,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="258" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
         <v>12</v>
       </c>
@@ -28343,7 +28351,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="259" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
         <v>12</v>
       </c>
@@ -28421,7 +28429,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="260" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="s">
         <v>12</v>
       </c>
@@ -28515,7 +28523,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="261" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
         <v>12</v>
       </c>
@@ -28593,7 +28601,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="262" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="s">
         <v>12</v>
       </c>
@@ -28687,7 +28695,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="263" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
         <v>12</v>
       </c>
@@ -28765,7 +28773,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="264" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
@@ -28843,7 +28851,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="265" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="s">
         <v>12</v>
       </c>
@@ -28921,7 +28929,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="266" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
         <v>12</v>
       </c>
@@ -29015,7 +29023,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="267" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
         <v>12</v>
       </c>
@@ -29093,7 +29101,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="268" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
         <v>12</v>
       </c>
@@ -29187,7 +29195,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="269" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
         <v>12</v>
       </c>
@@ -29265,7 +29273,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="270" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
         <v>12</v>
       </c>
@@ -29343,7 +29351,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="271" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
         <v>12</v>
       </c>
@@ -29427,7 +29435,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="272" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
         <v>12</v>
       </c>
@@ -29505,7 +29513,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="273" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
         <v>12</v>
       </c>
@@ -29583,7 +29591,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="274" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
         <v>12</v>
       </c>
@@ -29677,7 +29685,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="275" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
         <v>12</v>
       </c>
@@ -29755,7 +29763,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="276" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="s">
         <v>12</v>
       </c>
@@ -29849,7 +29857,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="277" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
         <v>12</v>
       </c>
@@ -29927,7 +29935,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="278" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
         <v>12</v>
       </c>
@@ -30005,7 +30013,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="279" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
         <v>12</v>
       </c>
@@ -30083,7 +30091,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="280" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
         <v>12</v>
       </c>
@@ -30161,7 +30169,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="281" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
         <v>12</v>
       </c>
@@ -30239,7 +30247,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="282" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
         <v>12</v>
       </c>
@@ -30317,7 +30325,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="283" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
         <v>12</v>
       </c>
@@ -30411,7 +30419,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="284" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
         <v>12</v>
       </c>
@@ -30495,7 +30503,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="285" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
         <v>12</v>
       </c>
@@ -30589,7 +30597,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="286" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
         <v>12</v>
       </c>
@@ -30667,7 +30675,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="287" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
         <v>12</v>
       </c>
@@ -30745,7 +30753,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="288" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
         <v>12</v>
       </c>
@@ -30823,7 +30831,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="289" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
         <v>12</v>
       </c>
@@ -30901,7 +30909,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="290" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
@@ -30989,7 +30997,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="291" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
         <v>12</v>
       </c>
@@ -31067,7 +31075,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="292" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
         <v>12</v>
       </c>
@@ -31145,7 +31153,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="293" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
         <v>12</v>
       </c>
@@ -31223,7 +31231,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="294" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
         <v>12</v>
       </c>
@@ -31307,7 +31315,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="295" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
         <v>12</v>
       </c>
@@ -31385,7 +31393,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="296" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
         <v>12</v>
       </c>
@@ -31483,7 +31491,7 @@
       <c r="BU296" s="19"/>
       <c r="BV296" s="19"/>
     </row>
-    <row r="297" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
         <v>12</v>
       </c>
@@ -31567,7 +31575,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="298" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
         <v>12</v>
       </c>
@@ -31665,7 +31673,7 @@
       <c r="BU298" s="19"/>
       <c r="BV298" s="19"/>
     </row>
-    <row r="299" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
         <v>12</v>
       </c>
@@ -31743,7 +31751,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="300" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
         <v>12</v>
       </c>
@@ -31821,7 +31829,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="301" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
         <v>12</v>
       </c>
@@ -31899,7 +31907,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="302" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
         <v>12</v>
       </c>
@@ -31977,7 +31985,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="303" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="3" t="s">
         <v>12</v>
       </c>
@@ -32055,7 +32063,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="304" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="3" t="s">
         <v>12</v>
       </c>
@@ -32149,7 +32157,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="305" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="3" t="s">
         <v>12</v>
       </c>
@@ -32263,7 +32271,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="306" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="3" t="s">
         <v>12</v>
       </c>
@@ -32357,7 +32365,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="307" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="3" t="s">
         <v>12</v>
       </c>
@@ -32441,7 +32449,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="308" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="3" t="s">
         <v>12</v>
       </c>
@@ -32519,7 +32527,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="309" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="3" t="s">
         <v>12</v>
       </c>
@@ -32597,7 +32605,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="310" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="3" t="s">
         <v>12</v>
       </c>
@@ -32675,7 +32683,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="311" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="3" t="s">
         <v>12</v>
       </c>
@@ -32771,7 +32779,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="312" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="3" t="s">
         <v>12</v>
       </c>
@@ -32853,7 +32861,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="313" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="3" t="s">
         <v>12</v>
       </c>
@@ -32947,7 +32955,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="314" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="3" t="s">
         <v>12</v>
       </c>
@@ -33025,7 +33033,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="315" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="3" t="s">
         <v>12</v>
       </c>
@@ -33103,7 +33111,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="316" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
@@ -33191,7 +33199,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="317" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="3" t="s">
         <v>12</v>
       </c>
@@ -33269,7 +33277,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="318" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="3" t="s">
         <v>12</v>
       </c>
@@ -33353,7 +33361,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="319" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="3" t="s">
         <v>12</v>
       </c>
@@ -33431,7 +33439,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="320" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="3" t="s">
         <v>12</v>
       </c>
@@ -33509,7 +33517,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="321" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="3" t="s">
         <v>12</v>
       </c>
@@ -33587,7 +33595,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="322" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="3" t="s">
         <v>12</v>
       </c>
@@ -33665,7 +33673,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="323" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="3" t="s">
         <v>12</v>
       </c>
@@ -33749,7 +33757,7 @@
       <c r="BA323" s="19"/>
       <c r="BB323" s="19"/>
     </row>
-    <row r="324" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="3" t="s">
         <v>12</v>
       </c>
@@ -33857,7 +33865,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="325" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="3" t="s">
         <v>12</v>
       </c>
@@ -33937,7 +33945,7 @@
       <c r="BA325" s="19"/>
       <c r="BB325" s="19"/>
     </row>
-    <row r="326" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="3" t="s">
         <v>12</v>
       </c>
@@ -34015,7 +34023,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="327" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="3" t="s">
         <v>12</v>
       </c>
@@ -34119,7 +34127,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="328" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="3" t="s">
         <v>12</v>
       </c>
@@ -34197,7 +34205,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="329" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="3" t="s">
         <v>12</v>
       </c>
@@ -34275,7 +34283,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="330" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="3" t="s">
         <v>12</v>
       </c>
@@ -34369,7 +34377,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="331" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="3" t="s">
         <v>12</v>
       </c>
@@ -34489,7 +34497,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="332" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="3" t="s">
         <v>12</v>
       </c>
@@ -34567,7 +34575,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="333" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="3" t="s">
         <v>12</v>
       </c>
@@ -34645,7 +34653,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="334" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="3" t="s">
         <v>12</v>
       </c>
@@ -34723,7 +34731,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="335" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="3" t="s">
         <v>12</v>
       </c>
@@ -34817,7 +34825,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="336" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="3" t="s">
         <v>12</v>
       </c>
@@ -34921,7 +34929,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="337" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="3" t="s">
         <v>12</v>
       </c>
@@ -35015,7 +35023,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="338" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="3" t="s">
         <v>12</v>
       </c>
@@ -35093,7 +35101,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="339" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="3" t="s">
         <v>12</v>
       </c>
@@ -35171,7 +35179,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="340" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="3" t="s">
         <v>12</v>
       </c>
@@ -35249,7 +35257,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="341" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="3" t="s">
         <v>12</v>
       </c>
@@ -35343,7 +35351,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="342" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="3" t="s">
         <v>12</v>
       </c>
@@ -35421,7 +35429,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="343" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="3" t="s">
         <v>12</v>
       </c>
@@ -35499,7 +35507,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="344" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="3" t="s">
         <v>12</v>
       </c>
@@ -35577,7 +35585,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="345" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="3" t="s">
         <v>12</v>
       </c>
@@ -35655,7 +35663,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="346" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="3" t="s">
         <v>12</v>
       </c>
@@ -35749,7 +35757,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="347" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="3" t="s">
         <v>12</v>
       </c>
@@ -35827,7 +35835,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="348" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="3" t="s">
         <v>12</v>
       </c>
@@ -35905,7 +35913,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="349" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="3" t="s">
         <v>12</v>
       </c>
@@ -35983,7 +35991,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="350" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="3" t="s">
         <v>12</v>
       </c>
@@ -36061,7 +36069,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="351" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="3" t="s">
         <v>12</v>
       </c>
@@ -36139,7 +36147,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="352" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="3" t="s">
         <v>12</v>
       </c>
@@ -36217,7 +36225,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="353" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="3" t="s">
         <v>12</v>
       </c>
@@ -36295,7 +36303,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="354" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="3" t="s">
         <v>12</v>
       </c>
@@ -36373,7 +36381,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="355" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="3" t="s">
         <v>12</v>
       </c>
@@ -36451,7 +36459,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="356" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="3" t="s">
         <v>12</v>
       </c>
@@ -36539,7 +36547,7 @@
       <c r="AY356" s="19"/>
       <c r="AZ356" s="19"/>
     </row>
-    <row r="357" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="3" t="s">
         <v>12</v>
       </c>
@@ -36627,7 +36635,7 @@
       <c r="AY357" s="19"/>
       <c r="AZ357" s="19"/>
     </row>
-    <row r="358" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="3" t="s">
         <v>12</v>
       </c>
@@ -36705,7 +36713,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="359" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="3" t="s">
         <v>12</v>
       </c>
@@ -36783,7 +36791,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="360" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="3" t="s">
         <v>12</v>
       </c>
@@ -36861,7 +36869,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="361" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="3" t="s">
         <v>12</v>
       </c>
@@ -36939,7 +36947,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="362" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="3" t="s">
         <v>12</v>
       </c>
@@ -37017,7 +37025,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="363" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="3" t="s">
         <v>12</v>
       </c>
@@ -37127,7 +37135,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="364" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="3" t="s">
         <v>12</v>
       </c>
@@ -37215,7 +37223,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="365" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="3" t="s">
         <v>12</v>
       </c>
@@ -37293,7 +37301,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="366" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="3" t="s">
         <v>12</v>
       </c>
@@ -37371,7 +37379,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="367" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="3" t="s">
         <v>12</v>
       </c>
@@ -37465,7 +37473,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="368" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="3" t="s">
         <v>12</v>
       </c>
@@ -37559,7 +37567,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="369" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="3" t="s">
         <v>12</v>
       </c>
@@ -37637,7 +37645,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="370" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="3" t="s">
         <v>12</v>
       </c>
@@ -37715,7 +37723,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="371" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="3" t="s">
         <v>12</v>
       </c>
@@ -37793,7 +37801,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="372" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="3" t="s">
         <v>12</v>
       </c>
@@ -37871,7 +37879,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="373" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="3" t="s">
         <v>12</v>
       </c>
@@ -37949,7 +37957,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="374" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="3" t="s">
         <v>12</v>
       </c>
@@ -38038,7 +38046,7 @@
       </c>
       <c r="AP374" s="19"/>
     </row>
-    <row r="375" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="3" t="s">
         <v>12</v>
       </c>
@@ -38117,7 +38125,7 @@
       </c>
       <c r="AP375" s="19"/>
     </row>
-    <row r="376" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="3" t="s">
         <v>12</v>
       </c>
@@ -38205,7 +38213,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="377" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="3" t="s">
         <v>12</v>
       </c>
@@ -38283,7 +38291,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="378" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="3" t="s">
         <v>12</v>
       </c>
@@ -38361,7 +38369,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="379" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="3" t="s">
         <v>12</v>
       </c>
@@ -38443,7 +38451,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="380" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="3" t="s">
         <v>12</v>
       </c>
@@ -38523,7 +38531,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="381" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="3" t="s">
         <v>12</v>
       </c>
@@ -38603,7 +38611,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="382" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="3" t="s">
         <v>12</v>
       </c>
@@ -38685,7 +38693,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="383" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="3" t="s">
         <v>12</v>
       </c>
@@ -38765,7 +38773,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="384" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="3" t="s">
         <v>12</v>
       </c>
@@ -38886,7 +38894,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="385" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="3" t="s">
         <v>12</v>
       </c>
@@ -38968,7 +38976,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="386" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="3" t="s">
         <v>12</v>
       </c>
@@ -39046,7 +39054,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="387" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="3" t="s">
         <v>12</v>
       </c>
@@ -39156,7 +39164,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="388" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="3" t="s">
         <v>12</v>
       </c>
@@ -39270,7 +39278,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="389" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="3" t="s">
         <v>12</v>
       </c>
@@ -39368,7 +39376,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="390" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="3" t="s">
         <v>12</v>
       </c>
@@ -39446,7 +39454,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="391" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="3" t="s">
         <v>12</v>
       </c>
@@ -39524,7 +39532,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="392" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="3" t="s">
         <v>12</v>
       </c>
@@ -39602,7 +39610,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="393" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="3" t="s">
         <v>12</v>
       </c>
@@ -39696,7 +39704,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="394" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="3" t="s">
         <v>12</v>
       </c>
@@ -39780,7 +39788,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="395" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="3" t="s">
         <v>12</v>
       </c>
@@ -39858,7 +39866,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="396" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="3" t="s">
         <v>12</v>
       </c>
@@ -39936,7 +39944,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="397" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="3" t="s">
         <v>12</v>
       </c>
@@ -40030,7 +40038,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="398" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="3" t="s">
         <v>12</v>
       </c>
@@ -40108,7 +40116,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="399" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="3" t="s">
         <v>12</v>
       </c>
@@ -40186,7 +40194,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="400" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="3" t="s">
         <v>12</v>
       </c>
@@ -40264,7 +40272,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="401" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="3" t="s">
         <v>12</v>
       </c>
@@ -40358,7 +40366,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="402" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="3" t="s">
         <v>12</v>
       </c>
@@ -40436,7 +40444,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="403" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="3" t="s">
         <v>12</v>
       </c>
@@ -40514,7 +40522,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="404" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="15" t="s">
         <v>12</v>
       </c>
@@ -40601,7 +40609,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="405" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="3" t="s">
         <v>12</v>
       </c>
@@ -40679,7 +40687,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="406" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="3" t="s">
         <v>12</v>
       </c>
@@ -40757,7 +40765,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="407" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="3" t="s">
         <v>12</v>
       </c>
@@ -40851,7 +40859,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="408" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="3" t="s">
         <v>12</v>
       </c>
@@ -40929,7 +40937,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="409" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="3" t="s">
         <v>12</v>
       </c>
@@ -41007,7 +41015,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="410" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="3" t="s">
         <v>12</v>
       </c>
@@ -41085,7 +41093,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="411" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="3" t="s">
         <v>12</v>
       </c>
@@ -41163,7 +41171,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="412" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="3" t="s">
         <v>12</v>
       </c>
@@ -41241,7 +41249,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="413" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="3" t="s">
         <v>12</v>
       </c>
@@ -41321,7 +41329,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="414" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="3" t="s">
         <v>12</v>
       </c>
@@ -41422,7 +41430,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="415" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="3" t="s">
         <v>12</v>
       </c>
@@ -41510,7 +41518,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="416" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="3" t="s">
         <v>12</v>
       </c>
@@ -41588,7 +41596,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="417" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="3" t="s">
         <v>12</v>
       </c>
@@ -41682,7 +41690,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="418" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="3" t="s">
         <v>12</v>
       </c>
@@ -41760,7 +41768,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="419" spans="1:74" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:74" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="3" t="s">
         <v>12</v>
       </c>
@@ -41886,7 +41894,7 @@
       <c r="BU419"/>
       <c r="BV419"/>
     </row>
-    <row r="420" spans="1:74" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:74" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="3" t="s">
         <v>12</v>
       </c>
@@ -42022,7 +42030,7 @@
       <c r="BU420"/>
       <c r="BV420"/>
     </row>
-    <row r="421" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="3" t="s">
         <v>12</v>
       </c>
@@ -42104,7 +42112,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="422" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="3" t="s">
         <v>12</v>
       </c>
@@ -42188,7 +42196,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="423" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="3" t="s">
         <v>12</v>
       </c>
@@ -42266,7 +42274,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="424" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="3" t="s">
         <v>12</v>
       </c>
@@ -42344,7 +42352,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="425" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="3" t="s">
         <v>12</v>
       </c>
@@ -42422,7 +42430,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="426" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="3" t="s">
         <v>12</v>
       </c>
@@ -42500,7 +42508,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="427" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="3" t="s">
         <v>12</v>
       </c>
@@ -42590,7 +42598,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="428" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="3" t="s">
         <v>12</v>
       </c>
@@ -42688,7 +42696,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="429" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="3" t="s">
         <v>12</v>
       </c>
@@ -42782,7 +42790,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="430" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="3" t="s">
         <v>12</v>
       </c>
@@ -42860,7 +42868,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="431" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="3" t="s">
         <v>12</v>
       </c>
@@ -42938,7 +42946,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="432" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="3" t="s">
         <v>12</v>
       </c>
@@ -43022,7 +43030,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="433" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="3" t="s">
         <v>12</v>
       </c>
@@ -43106,7 +43114,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="434" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="3" t="s">
         <v>12</v>
       </c>
@@ -43184,7 +43192,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="435" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="3" t="s">
         <v>12</v>
       </c>
@@ -43278,7 +43286,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="436" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="3" t="s">
         <v>12</v>
       </c>
@@ -43356,7 +43364,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="437" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="3" t="s">
         <v>12</v>
       </c>
@@ -43434,7 +43442,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="438" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="3" t="s">
         <v>12</v>
       </c>
@@ -43528,7 +43536,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="439" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="3" t="s">
         <v>12</v>
       </c>
@@ -43606,7 +43614,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="440" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="3" t="s">
         <v>12</v>
       </c>
@@ -43690,7 +43698,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="441" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="3" t="s">
         <v>12</v>
       </c>
@@ -43768,7 +43776,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="442" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="3" t="s">
         <v>12</v>
       </c>
@@ -43846,7 +43854,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="443" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="3" t="s">
         <v>12</v>
       </c>
@@ -43930,7 +43938,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="444" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="3" t="s">
         <v>12</v>
       </c>
@@ -44024,7 +44032,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="445" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="3" t="s">
         <v>12</v>
       </c>
@@ -44118,7 +44126,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="446" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="3" t="s">
         <v>12</v>
       </c>
@@ -44196,7 +44204,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="447" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="3" t="s">
         <v>12</v>
       </c>
@@ -44290,7 +44298,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="448" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="3" t="s">
         <v>12</v>
       </c>
@@ -44368,7 +44376,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="449" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="3" t="s">
         <v>12</v>
       </c>
@@ -44446,7 +44454,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="450" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="3" t="s">
         <v>12</v>
       </c>
@@ -44540,7 +44548,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="451" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="3" t="s">
         <v>12</v>
       </c>
@@ -44618,7 +44626,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="452" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="3" t="s">
         <v>12</v>
       </c>
@@ -44702,7 +44710,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="453" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="3" t="s">
         <v>12</v>
       </c>
@@ -44780,7 +44788,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="454" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="3" t="s">
         <v>12</v>
       </c>
@@ -44874,7 +44882,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="455" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="3" t="s">
         <v>12</v>
       </c>
@@ -44952,7 +44960,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="456" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="3" t="s">
         <v>12</v>
       </c>
@@ -45046,7 +45054,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="457" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="3" t="s">
         <v>12</v>
       </c>
@@ -45124,7 +45132,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="458" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="3" t="s">
         <v>12</v>
       </c>
@@ -45218,7 +45226,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="459" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="3" t="s">
         <v>12</v>
       </c>
@@ -45312,7 +45320,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="460" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="3" t="s">
         <v>12</v>
       </c>
@@ -45390,7 +45398,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="461" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="3" t="s">
         <v>12</v>
       </c>
@@ -45510,7 +45518,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="462" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="3" t="s">
         <v>12</v>
       </c>
@@ -45588,7 +45596,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="463" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="3" t="s">
         <v>12</v>
       </c>
@@ -45670,7 +45678,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="464" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="3" t="s">
         <v>12</v>
       </c>
@@ -45764,7 +45772,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="465" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="3" t="s">
         <v>12</v>
       </c>
@@ -45858,7 +45866,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="466" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="3" t="s">
         <v>12</v>
       </c>
@@ -45936,7 +45944,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="467" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="3" t="s">
         <v>12</v>
       </c>
@@ -46020,7 +46028,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="468" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="3" t="s">
         <v>12</v>
       </c>
@@ -46098,7 +46106,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="469" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="3" t="s">
         <v>12</v>
       </c>
@@ -46182,7 +46190,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="470" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="3" t="s">
         <v>12</v>
       </c>
@@ -46260,7 +46268,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="471" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="3" t="s">
         <v>12</v>
       </c>
@@ -46338,7 +46346,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="472" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="3" t="s">
         <v>12</v>
       </c>
@@ -46416,7 +46424,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="473" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="3" t="s">
         <v>12</v>
       </c>
@@ -46494,7 +46502,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="474" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="3" t="s">
         <v>12</v>
       </c>
@@ -46602,7 +46610,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="475" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="3" t="s">
         <v>12</v>
       </c>
@@ -46684,7 +46692,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="476" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="3" t="s">
         <v>12</v>
       </c>
@@ -46762,7 +46770,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="477" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="3" t="s">
         <v>12</v>
       </c>
@@ -46840,7 +46848,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="478" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="3" t="s">
         <v>12</v>
       </c>
@@ -46918,7 +46926,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="479" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="3" t="s">
         <v>12</v>
       </c>
@@ -46996,7 +47004,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="480" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="3" t="s">
         <v>12</v>
       </c>
@@ -47090,7 +47098,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="481" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="3" t="s">
         <v>12</v>
       </c>
@@ -47168,7 +47176,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="482" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="3" t="s">
         <v>12</v>
       </c>
@@ -47264,7 +47272,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="483" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="3" t="s">
         <v>12</v>
       </c>
@@ -47342,7 +47350,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="484" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="3" t="s">
         <v>12</v>
       </c>
@@ -47420,7 +47428,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="485" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="3" t="s">
         <v>12</v>
       </c>
@@ -47498,7 +47506,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="486" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="3" t="s">
         <v>12</v>
       </c>
@@ -47576,7 +47584,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="487" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="3" t="s">
         <v>12</v>
       </c>
@@ -47654,7 +47662,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="488" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="3" t="s">
         <v>12</v>
       </c>
@@ -47732,7 +47740,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="489" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="3" t="s">
         <v>12</v>
       </c>
@@ -47810,7 +47818,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="490" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="3" t="s">
         <v>12</v>
       </c>
@@ -47904,7 +47912,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="491" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="3" t="s">
         <v>12</v>
       </c>
@@ -47998,7 +48006,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="492" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="3" t="s">
         <v>12</v>
       </c>
@@ -48080,7 +48088,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="493" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="3" t="s">
         <v>12</v>
       </c>
@@ -48158,7 +48166,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="494" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="3" t="s">
         <v>12</v>
       </c>
@@ -48236,7 +48244,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="495" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="3" t="s">
         <v>12</v>
       </c>
@@ -48314,7 +48322,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="496" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="3" t="s">
         <v>12</v>
       </c>
@@ -48392,7 +48400,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="497" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="3" t="s">
         <v>12</v>
       </c>
@@ -48470,7 +48478,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="498" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="3" t="s">
         <v>12</v>
       </c>
@@ -48548,7 +48556,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="499" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="3" t="s">
         <v>12</v>
       </c>
@@ -48642,7 +48650,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="500" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="3" t="s">
         <v>12</v>
       </c>
@@ -48720,7 +48728,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="501" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="3" t="s">
         <v>12</v>
       </c>
@@ -48814,7 +48822,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="502" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="3" t="s">
         <v>12</v>
       </c>
@@ -48892,7 +48900,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="503" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="3" t="s">
         <v>12</v>
       </c>
@@ -48970,7 +48978,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="504" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="3" t="s">
         <v>12</v>
       </c>
@@ -49048,7 +49056,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="505" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="3" t="s">
         <v>12</v>
       </c>
@@ -49132,7 +49140,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="506" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="3" t="s">
         <v>12</v>
       </c>
@@ -49210,7 +49218,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="507" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="3" t="s">
         <v>12</v>
       </c>
@@ -49288,7 +49296,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="508" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="3" t="s">
         <v>12</v>
       </c>
@@ -49382,7 +49390,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="509" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="3" t="s">
         <v>12</v>
       </c>
@@ -49460,7 +49468,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="510" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="3" t="s">
         <v>12</v>
       </c>
@@ -49538,7 +49546,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="511" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="3" t="s">
         <v>12</v>
       </c>
@@ -49632,7 +49640,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="512" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="3" t="s">
         <v>12</v>
       </c>
@@ -49726,7 +49734,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="513" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="3" t="s">
         <v>12</v>
       </c>
@@ -49804,7 +49812,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="514" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="3" t="s">
         <v>12</v>
       </c>
@@ -49898,7 +49906,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="515" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="3" t="s">
         <v>12</v>
       </c>
@@ -49992,7 +50000,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="516" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="3" t="s">
         <v>12</v>
       </c>
@@ -50070,7 +50078,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="517" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="3" t="s">
         <v>12</v>
       </c>
@@ -50148,7 +50156,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="518" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="3" t="s">
         <v>12</v>
       </c>
@@ -50226,7 +50234,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="519" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="3" t="s">
         <v>12</v>
       </c>
@@ -50304,7 +50312,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="520" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="3" t="s">
         <v>12</v>
       </c>
@@ -50382,7 +50390,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="521" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="3" t="s">
         <v>12</v>
       </c>
@@ -50466,7 +50474,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="522" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="3" t="s">
         <v>12</v>
       </c>
@@ -50550,7 +50558,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="523" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="3" t="s">
         <v>12</v>
       </c>
@@ -50628,7 +50636,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="524" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="3" t="s">
         <v>12</v>
       </c>
@@ -50722,7 +50730,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="525" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="3" t="s">
         <v>12</v>
       </c>
@@ -50800,7 +50808,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="526" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="3" t="s">
         <v>12</v>
       </c>
@@ -50894,7 +50902,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="527" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="3" t="s">
         <v>12</v>
       </c>
@@ -50972,7 +50980,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="528" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="3" t="s">
         <v>12</v>
       </c>
@@ -51050,7 +51058,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="529" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="3" t="s">
         <v>12</v>
       </c>
@@ -51128,7 +51136,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="530" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="3" t="s">
         <v>12</v>
       </c>
@@ -51216,7 +51224,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="531" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="3" t="s">
         <v>12</v>
       </c>
@@ -51294,7 +51302,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="532" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="3" t="s">
         <v>12</v>
       </c>
@@ -51372,7 +51380,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="533" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="3" t="s">
         <v>12</v>
       </c>
@@ -51450,7 +51458,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="534" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="3" t="s">
         <v>12</v>
       </c>
@@ -51544,7 +51552,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="535" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="3" t="s">
         <v>12</v>
       </c>
@@ -51622,7 +51630,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="536" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="3" t="s">
         <v>12</v>
       </c>
@@ -51700,7 +51708,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="537" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="3" t="s">
         <v>12</v>
       </c>
@@ -51778,7 +51786,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="538" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="3" t="s">
         <v>12</v>
       </c>
@@ -51862,7 +51870,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="539" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="3" t="s">
         <v>12</v>
       </c>
@@ -51940,7 +51948,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="540" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="3" t="s">
         <v>12</v>
       </c>
@@ -52018,7 +52026,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="541" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="3" t="s">
         <v>12</v>
       </c>
@@ -52096,7 +52104,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="542" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="3" t="s">
         <v>12</v>
       </c>
@@ -52174,7 +52182,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="543" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="3" t="s">
         <v>12</v>
       </c>
@@ -52268,7 +52276,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="544" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="3" t="s">
         <v>12</v>
       </c>
@@ -52346,7 +52354,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="545" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="3" t="s">
         <v>12</v>
       </c>
@@ -52424,7 +52432,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="546" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="3" t="s">
         <v>12</v>
       </c>
@@ -52502,7 +52510,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="547" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="3" t="s">
         <v>12</v>
       </c>
@@ -52580,7 +52588,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="548" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="3" t="s">
         <v>12</v>
       </c>
@@ -52658,7 +52666,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="549" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="3" t="s">
         <v>12</v>
       </c>
@@ -52736,7 +52744,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="550" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="3" t="s">
         <v>12</v>
       </c>
@@ -52814,7 +52822,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="551" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="3" t="s">
         <v>12</v>
       </c>
@@ -52892,7 +52900,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="552" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="3" t="s">
         <v>12</v>
       </c>
@@ -52986,7 +52994,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="553" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="3" t="s">
         <v>12</v>
       </c>
@@ -53064,7 +53072,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="554" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="3" t="s">
         <v>12</v>
       </c>
@@ -53142,7 +53150,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="555" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="3" t="s">
         <v>12</v>
       </c>
@@ -53220,7 +53228,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="556" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="3" t="s">
         <v>12</v>
       </c>
@@ -53298,7 +53306,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="557" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="3" t="s">
         <v>12</v>
       </c>
@@ -53376,7 +53384,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="558" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="3" t="s">
         <v>12</v>
       </c>
@@ -53454,7 +53462,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="559" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="3" t="s">
         <v>12</v>
       </c>
@@ -53532,7 +53540,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="560" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="3" t="s">
         <v>12</v>
       </c>
@@ -53610,7 +53618,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="561" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="3" t="s">
         <v>12</v>
       </c>
@@ -53704,7 +53712,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="562" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="3" t="s">
         <v>12</v>
       </c>
@@ -53798,7 +53806,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="563" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="3" t="s">
         <v>12</v>
       </c>
@@ -53876,7 +53884,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="564" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="3" t="s">
         <v>12</v>
       </c>
@@ -53954,7 +53962,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="565" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="3" t="s">
         <v>12</v>
       </c>
@@ -54032,7 +54040,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="566" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="3" t="s">
         <v>12</v>
       </c>
@@ -54114,7 +54122,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="567" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="3" t="s">
         <v>12</v>
       </c>
@@ -54192,7 +54200,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="568" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="3" t="s">
         <v>12</v>
       </c>
@@ -54312,7 +54320,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="569" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="3" t="s">
         <v>12</v>
       </c>
@@ -54420,7 +54428,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="570" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="3" t="s">
         <v>12</v>
       </c>
@@ -54512,7 +54520,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="571" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="3" t="s">
         <v>12</v>
       </c>
@@ -54590,7 +54598,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="572" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="3" t="s">
         <v>12</v>
       </c>
@@ -54668,7 +54676,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="573" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="3" t="s">
         <v>12</v>
       </c>
@@ -54746,7 +54754,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="574" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="3" t="s">
         <v>12</v>
       </c>
@@ -54824,7 +54832,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="575" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A575" s="3" t="s">
         <v>12</v>
       </c>
@@ -54918,7 +54926,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="576" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A576" s="3" t="s">
         <v>12</v>
       </c>
@@ -55025,7 +55033,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="577" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A577" s="3" t="s">
         <v>12</v>
       </c>
@@ -55119,7 +55127,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="578" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A578" s="3" t="s">
         <v>12</v>
       </c>
@@ -55197,7 +55205,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="579" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="3" t="s">
         <v>12</v>
       </c>
@@ -55275,7 +55283,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="580" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A580" s="3" t="s">
         <v>12</v>
       </c>
@@ -55357,7 +55365,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="581" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A581" s="3" t="s">
         <v>12</v>
       </c>
@@ -55435,7 +55443,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="582" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A582" s="3" t="s">
         <v>12</v>
       </c>
@@ -55529,7 +55537,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="583" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="3" t="s">
         <v>12</v>
       </c>
@@ -55607,7 +55615,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="584" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A584" s="3" t="s">
         <v>12</v>
       </c>
@@ -55685,7 +55693,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="585" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A585" s="3" t="s">
         <v>12</v>
       </c>
@@ -55763,7 +55771,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="586" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A586" s="3" t="s">
         <v>12</v>
       </c>
@@ -55847,7 +55855,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="587" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A587" s="3" t="s">
         <v>12</v>
       </c>
@@ -55925,7 +55933,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="588" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A588" s="3" t="s">
         <v>12</v>
       </c>
@@ -56003,7 +56011,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="589" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A589" s="3" t="s">
         <v>12</v>
       </c>
@@ -56081,7 +56089,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="590" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="3" t="s">
         <v>12</v>
       </c>
@@ -56159,7 +56167,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="591" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A591" s="3" t="s">
         <v>12</v>
       </c>
@@ -56278,7 +56286,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="592" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A592" s="3" t="s">
         <v>12</v>
       </c>
@@ -56356,7 +56364,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="593" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A593" s="3" t="s">
         <v>12</v>
       </c>
@@ -56452,7 +56460,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="594" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A594" s="3" t="s">
         <v>12</v>
       </c>
@@ -56548,7 +56556,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="595" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A595" s="3" t="s">
         <v>12</v>
       </c>
@@ -56634,7 +56642,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="596" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A596" s="3" t="s">
         <v>12</v>
       </c>
@@ -56712,7 +56720,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="597" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A597" s="3" t="s">
         <v>12</v>
       </c>
@@ -56790,7 +56798,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="598" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A598" s="3" t="s">
         <v>12</v>
       </c>
@@ -56874,7 +56882,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="599" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A599" s="3" t="s">
         <v>12</v>
       </c>
@@ -56994,7 +57002,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="600" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A600" s="3" t="s">
         <v>12</v>
       </c>
@@ -57076,7 +57084,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="601" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A601" s="3" t="s">
         <v>12</v>
       </c>
@@ -57158,7 +57166,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="602" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A602" s="3" t="s">
         <v>12</v>
       </c>
@@ -57240,7 +57248,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="603" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A603" s="3" t="s">
         <v>12</v>
       </c>
@@ -57322,7 +57330,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="604" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A604" s="3" t="s">
         <v>12</v>
       </c>
@@ -57444,7 +57452,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="605" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A605" s="3" t="s">
         <v>12</v>
       </c>
@@ -57522,7 +57530,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="606" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A606" s="3" t="s">
         <v>12</v>
       </c>
@@ -57600,7 +57608,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="607" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A607" s="3" t="s">
         <v>12</v>
       </c>
@@ -57704,7 +57712,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="608" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A608" s="3" t="s">
         <v>12</v>
       </c>
@@ -57782,7 +57790,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="609" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A609" s="3" t="s">
         <v>12</v>
       </c>
@@ -57878,7 +57886,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="610" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A610" s="3" t="s">
         <v>12</v>
       </c>
@@ -57958,7 +57966,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="611" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A611" s="3" t="s">
         <v>12</v>
       </c>
@@ -58040,7 +58048,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="612" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A612" s="3" t="s">
         <v>12</v>
       </c>
@@ -58118,7 +58126,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="613" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A613" s="3" t="s">
         <v>12</v>
       </c>
@@ -58196,7 +58204,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="614" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A614" s="3" t="s">
         <v>12</v>
       </c>
@@ -58274,7 +58282,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="615" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A615" s="3" t="s">
         <v>12</v>
       </c>
@@ -58352,7 +58360,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="616" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A616" s="3" t="s">
         <v>12</v>
       </c>
@@ -58430,7 +58438,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="617" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A617" s="3" t="s">
         <v>12</v>
       </c>
@@ -58508,7 +58516,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="618" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A618" s="3" t="s">
         <v>12</v>
       </c>
@@ -58586,7 +58594,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="619" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A619" s="3" t="s">
         <v>12</v>
       </c>
@@ -58664,7 +58672,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="620" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A620" s="3" t="s">
         <v>12</v>
       </c>
@@ -58742,7 +58750,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="621" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A621" s="3" t="s">
         <v>12</v>
       </c>
@@ -58824,7 +58832,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="622" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A622" s="3" t="s">
         <v>12</v>
       </c>
@@ -58906,7 +58914,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="623" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A623" s="3" t="s">
         <v>12</v>
       </c>
@@ -58988,7 +58996,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="624" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A624" s="3" t="s">
         <v>12</v>
       </c>
@@ -59070,7 +59078,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="625" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A625" s="3" t="s">
         <v>12</v>
       </c>
@@ -59150,7 +59158,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="626" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A626" s="3" t="s">
         <v>12</v>
       </c>
@@ -59244,7 +59252,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="627" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A627" s="3" t="s">
         <v>12</v>
       </c>
@@ -59326,7 +59334,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="628" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A628" s="3" t="s">
         <v>12</v>
       </c>
@@ -59404,7 +59412,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="629" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A629" s="3" t="s">
         <v>12</v>
       </c>
@@ -59488,7 +59496,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="630" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A630" s="3" t="s">
         <v>12</v>
       </c>
@@ -59566,7 +59574,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="631" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A631" s="3" t="s">
         <v>12</v>
       </c>
@@ -59644,7 +59652,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="632" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A632" s="3" t="s">
         <v>12</v>
       </c>
@@ -59722,7 +59730,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="633" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A633" s="3" t="s">
         <v>12</v>
       </c>
@@ -59800,7 +59808,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="634" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A634" s="3" t="s">
         <v>12</v>
       </c>
@@ -59878,7 +59886,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="635" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A635" s="3" t="s">
         <v>12</v>
       </c>
@@ -59976,7 +59984,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="636" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A636" s="3" t="s">
         <v>12</v>
       </c>
@@ -60074,7 +60082,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="637" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A637" s="3" t="s">
         <v>12</v>
       </c>
@@ -60158,7 +60166,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="638" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A638" s="3" t="s">
         <v>12</v>
       </c>
@@ -60246,7 +60254,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="639" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A639" s="3" t="s">
         <v>12</v>
       </c>
@@ -60324,7 +60332,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="640" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A640" s="3" t="s">
         <v>12</v>
       </c>
@@ -60402,7 +60410,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="641" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A641" s="3" t="s">
         <v>12</v>
       </c>
@@ -60486,7 +60494,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="642" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A642" s="3" t="s">
         <v>12</v>
       </c>
@@ -60564,7 +60572,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="643" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A643" s="3" t="s">
         <v>12</v>
       </c>
@@ -60642,7 +60650,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="644" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A644" s="3" t="s">
         <v>12</v>
       </c>
@@ -60720,7 +60728,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="645" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A645" s="3" t="s">
         <v>12</v>
       </c>
@@ -60798,7 +60806,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="646" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A646" s="3" t="s">
         <v>12</v>
       </c>
@@ -60892,7 +60900,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="647" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A647" s="3" t="s">
         <v>12</v>
       </c>
@@ -60986,7 +60994,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="648" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A648" s="3" t="s">
         <v>12</v>
       </c>
@@ -61064,7 +61072,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="649" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A649" s="3" t="s">
         <v>12</v>
       </c>
@@ -61148,7 +61156,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="650" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A650" s="3" t="s">
         <v>12</v>
       </c>
@@ -61243,43 +61251,43 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>1873</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>1870</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
         <v>1871</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
         <v>1900</v>
       </c>
@@ -61287,22 +61295,22 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
         <v>1911</v>
       </c>
@@ -61311,7 +61319,7 @@
       </c>
       <c r="C11" s="20"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
         <v>1921</v>
       </c>
@@ -61319,7 +61327,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="43" t="s">
         <v>5</v>
       </c>
@@ -61327,7 +61335,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="43" t="s">
         <v>1928</v>
       </c>
@@ -61335,17 +61343,17 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
         <v>7</v>
       </c>
@@ -61353,7 +61361,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
         <v>1888</v>
       </c>
@@ -61361,7 +61369,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
         <v>8</v>
       </c>
@@ -61369,7 +61377,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
         <v>1889</v>
       </c>
@@ -61377,7 +61385,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
         <v>9</v>
       </c>
@@ -61385,7 +61393,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="34" t="s">
         <v>10</v>
       </c>
@@ -61393,7 +61401,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="37" t="s">
         <v>1981</v>
       </c>
@@ -61401,7 +61409,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="37" t="s">
         <v>1982</v>
       </c>
@@ -61409,7 +61417,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="37" t="s">
         <v>1980</v>
       </c>
@@ -61417,7 +61425,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="37" t="s">
         <v>1985</v>
       </c>
@@ -61425,7 +61433,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="37" t="s">
         <v>1986</v>
       </c>
@@ -61433,7 +61441,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="37" t="s">
         <v>1983</v>
       </c>
@@ -61441,12 +61449,12 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="37" t="s">
         <v>1984</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="42" t="s">
         <v>1971</v>
       </c>
@@ -61454,7 +61462,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="41" t="s">
         <v>1972</v>
       </c>
@@ -61462,7 +61470,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="41" t="s">
         <v>1973</v>
       </c>
@@ -61470,7 +61478,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="41" t="s">
         <v>1974</v>
       </c>
@@ -61478,7 +61486,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="41" t="s">
         <v>1975</v>
       </c>
@@ -61486,7 +61494,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="41" t="s">
         <v>1976</v>
       </c>
@@ -61494,7 +61502,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="41" t="s">
         <v>1977</v>
       </c>
@@ -61502,7 +61510,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="41" t="s">
         <v>1978</v>
       </c>
@@ -61510,7 +61518,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="41" t="s">
         <v>1979</v>
       </c>
@@ -61518,7 +61526,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="38" t="s">
         <v>1842</v>
       </c>
@@ -61526,13 +61534,13 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="38" t="s">
         <v>1990</v>
       </c>
       <c r="B40" s="52"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="39" t="s">
         <v>1841</v>
       </c>
